--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MultipleSheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MultipleSheets.xlsx
@@ -370,7 +370,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -396,7 +396,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -422,7 +422,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -448,7 +448,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MultipleSheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MultipleSheets.xlsx
@@ -375,14 +375,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -401,14 +394,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -427,14 +413,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -453,14 +432,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MultipleSheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MultipleSheets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
